--- a/US009 - Quality Assurance Checklist v1.0.xlsx
+++ b/US009 - Quality Assurance Checklist v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Desktop/dxc/Java Fresher Program Batch 5 and 6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10297364-728B-8F48-8121-2A3203514ABB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195F054C-0533-5C4E-A25F-F8DDFCF6F89F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="17440" windowHeight="10680" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="4" r:id="rId1"/>
@@ -23,12 +23,16 @@
     <sheet name="Config" sheetId="8" state="hidden" r:id="rId8"/>
     <sheet name="Amendment Record" sheetId="5" state="hidden" r:id="rId9"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId10"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Online!$A$2:$I$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Tool!$A$2:$I$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">WS!$A$2:$I$2</definedName>
     <definedName name="Action">Config!$B$2:$B$3</definedName>
     <definedName name="FileType">Config!$C$2:$C$9</definedName>
+    <definedName name="q">[1]Config!$C$2:$C$9</definedName>
     <definedName name="System">Config!$A$2:$A$10</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -138,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="116">
   <si>
     <t>Amendment Record</t>
   </si>
@@ -282,9 +286,6 @@
   </si>
   <si>
     <t>GIT</t>
-  </si>
-  <si>
-    <t>&lt;&lt;URL&gt;&gt;</t>
   </si>
   <si>
     <t>Require</t>
@@ -333,9 +334,6 @@
     <t xml:space="preserve">Posted Premium </t>
   </si>
   <si>
-    <t>&lt;&lt;Fill&gt;</t>
-  </si>
-  <si>
     <t>Add Copyright at the bottom, for instance, Copyright © 2021 DXC Technology</t>
   </si>
   <si>
@@ -427,6 +425,72 @@
   </si>
   <si>
     <t>SQL Server run on Docker</t>
+  </si>
+  <si>
+    <t>localhost:8080/import_claim/findclaim</t>
+  </si>
+  <si>
+    <t>pom</t>
+  </si>
+  <si>
+    <t>Vo Duc Hoa</t>
+  </si>
+  <si>
+    <t>Spring-servlet</t>
+  </si>
+  <si>
+    <t>Web.xml</t>
+  </si>
+  <si>
+    <t>import_claim\pom.xml</t>
+  </si>
+  <si>
+    <t>import_claim\src\main\Webapp\WEB-INF\contex\servlet-context.xml - applicationContext.xml</t>
+  </si>
+  <si>
+    <t>import_claim\src\main\Webapp\WEB-INF\web.xml</t>
+  </si>
+  <si>
+    <t>Log4j</t>
+  </si>
+  <si>
+    <t>import_claim/src/main/resources/log4j.properties</t>
+  </si>
+  <si>
+    <t>ImportClaim</t>
+  </si>
+  <si>
+    <t>MotorPolicy</t>
+  </si>
+  <si>
+    <t>import_claim/src/main/java/com/dxc/importclaim/io/ImportClaim.java</t>
+  </si>
+  <si>
+    <t>import_claim/src/main/java/com/dxc/importclaim/io/MotorPolicy.java</t>
+  </si>
+  <si>
+    <t>IImportClaim</t>
+  </si>
+  <si>
+    <t>import_claim/src/main/java/com/dxc/importclaim/interfaces/IImportClaim.java</t>
+  </si>
+  <si>
+    <t>ImportClaimDAO</t>
+  </si>
+  <si>
+    <t>import_claim/src/main/java/com/dxc/importclaim/dao/ImportClaimDAO.java</t>
+  </si>
+  <si>
+    <t>ImportClaimService</t>
+  </si>
+  <si>
+    <t>import_claim/src/main/java/com/dxc/importclaim/service/ImportClaimService.java</t>
+  </si>
+  <si>
+    <t>ImportClaimController</t>
+  </si>
+  <si>
+    <t>import_claim/src/main/java/com/dxc/importclaim/Controller/ImportClaimController.java</t>
   </si>
 </sst>
 </file>
@@ -699,7 +763,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -796,6 +860,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="3" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="%" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -869,6 +935,76 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Cover"/>
+      <sheetName val="Requirements"/>
+      <sheetName val="Acceptance Criteria"/>
+      <sheetName val="Control Action Rules"/>
+      <sheetName val="Online"/>
+      <sheetName val="WS"/>
+      <sheetName val="Tool"/>
+      <sheetName val="Config"/>
+      <sheetName val="Amendment Record"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>DDL</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>DML</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4" t="str">
+            <v>Java</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5" t="str">
+            <v>JSP</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6" t="str">
+            <v>Others</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7" t="str">
+            <v>Properties</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8" t="str">
+            <v>SQL</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9" t="str">
+            <v>XML</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1196,7 +1332,7 @@
   <dimension ref="C4:G19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1205,7 +1341,7 @@
     <col min="2" max="2" width="3" style="6" customWidth="1"/>
     <col min="3" max="3" width="20.5" style="6" customWidth="1"/>
     <col min="4" max="4" width="4.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="32.5" style="6" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" style="6" customWidth="1"/>
     <col min="7" max="16384" width="9.1640625" style="6"/>
   </cols>
@@ -1220,7 +1356,7 @@
         <v>42</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.15">
@@ -1228,7 +1364,7 @@
         <v>43</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.15">
@@ -1236,16 +1372,14 @@
         <v>44</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" ht="15" x14ac:dyDescent="0.2">
       <c r="C10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="E10" s="42"/>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C11" s="4"/>
@@ -1266,19 +1400,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="3:7" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>64</v>
-      </c>
+      <c r="E14" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E15" s="21"/>
@@ -1324,7 +1454,7 @@
   </sheetPr>
   <dimension ref="A2:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -1342,13 +1472,13 @@
         <v>11</v>
       </c>
       <c r="B2" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="D2" s="37" t="s">
         <v>50</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1356,13 +1486,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="D3" s="21" t="s">
         <v>53</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="28" x14ac:dyDescent="0.15">
@@ -1370,13 +1500,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="D4" s="38" t="s">
         <v>56</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -1384,13 +1514,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -1398,13 +1528,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -1412,13 +1542,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -1426,13 +1556,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -1440,13 +1570,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -1454,13 +1584,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -1468,10 +1598,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D11" s="38"/>
     </row>
@@ -1480,13 +1610,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1520,13 +1650,13 @@
         <v>11</v>
       </c>
       <c r="B2" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="D2" s="37" t="s">
         <v>50</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1534,13 +1664,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -1548,13 +1678,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -1562,13 +1692,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -1576,13 +1706,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -1590,13 +1720,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -1604,13 +1734,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -1618,13 +1748,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1658,13 +1788,13 @@
         <v>11</v>
       </c>
       <c r="B2" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="D2" s="37" t="s">
         <v>50</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1672,13 +1802,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="40" t="s">
-        <v>61</v>
-      </c>
       <c r="D3" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -1686,13 +1816,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="41" t="s">
-        <v>63</v>
-      </c>
       <c r="D4" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -1721,10 +1851,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1787,24 +1917,362 @@
       <c r="A3" s="35">
         <v>1</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="27"/>
+      <c r="B3" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="28">
+        <v>44259</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>99</v>
+      </c>
       <c r="I3" s="34"/>
+    </row>
+    <row r="4" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="35">
+        <v>2</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="28">
+        <v>44259</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" s="34"/>
+    </row>
+    <row r="5" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="35">
+        <v>3</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="28">
+        <v>44259</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="I5" s="34"/>
+    </row>
+    <row r="6" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="35">
+        <v>5</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="28">
+        <v>44260</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" s="34"/>
+    </row>
+    <row r="7" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="35">
+        <v>6</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="28">
+        <v>44260</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="I7" s="34"/>
+    </row>
+    <row r="8" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="35">
+        <v>7</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="28">
+        <v>44260</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="34"/>
+    </row>
+    <row r="9" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="35">
+        <v>8</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="28">
+        <v>44260</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" s="34"/>
+    </row>
+    <row r="10" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="35">
+        <v>9</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="28">
+        <v>44260</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10" s="34"/>
+    </row>
+    <row r="11" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="35">
+        <v>10</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="28">
+        <v>44260</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="I11" s="34"/>
+    </row>
+    <row r="12" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="35">
+        <v>11</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="28">
+        <v>44261</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="I12" s="34"/>
+    </row>
+    <row r="13" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="35">
+        <v>12</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="28">
+        <v>44262</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="I13" s="34"/>
+    </row>
+    <row r="14" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="35">
+        <v>13</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="28">
+        <v>44263</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="I14" s="34"/>
+    </row>
+    <row r="15" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="35">
+        <v>14</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="28">
+        <v>44264</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="I15" s="34"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B15" xr:uid="{E3A5E9E6-0428-A041-B35D-A4F03BB21A66}">
       <formula1>System</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D15" xr:uid="{CB04D54B-04AD-4947-93BE-1AFEE39C2C91}">
       <formula1>FileType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E15" xr:uid="{144CBD79-C8DA-4548-8BF8-F23823EEE97E}">
       <formula1>Action</formula1>
     </dataValidation>
   </dataValidations>
@@ -1918,7 +2386,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2228,12 +2696,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2422,15 +2887,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B39F7FEB-4B99-473D-A647-500626B7F022}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3E6B318-615A-4722-9BE2-D946B6692FAD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2455,10 +2924,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3E6B318-615A-4722-9BE2-D946B6692FAD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B39F7FEB-4B99-473D-A647-500626B7F022}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>